--- a/Resume(eng).xlsx
+++ b/Resume(eng).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Плегунов Николай Михайлович</t>
   </si>
@@ -64,7 +64,7 @@
     <t>-Postman (basic level)</t>
   </si>
   <si>
-    <t>-Git (basic level)</t>
+    <t>-Git</t>
   </si>
   <si>
     <t>-Kanban</t>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>-Selenium IDE (basic level)</t>
+  </si>
+  <si>
+    <t>HTML/CSS(basic level)</t>
   </si>
   <si>
     <t>Previous work:</t>
@@ -262,6 +265,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -270,29 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -303,7 +328,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,7 +351,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,28 +364,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -371,25 +374,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,150 +542,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1036,15 +1039,6 @@
       <top style="dotted">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1075,6 +1069,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1117,15 +1120,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1149,16 +1143,16 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1170,131 +1164,131 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1519,7 +1513,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1859,8 +1852,8 @@
   <sheetPr/>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2098,7 +2091,7 @@
       <c r="H17" s="38"/>
       <c r="I17" s="75"/>
     </row>
-    <row r="18" ht="15.75" spans="1:9">
+    <row r="18" spans="1:9">
       <c r="A18" s="28" t="s">
         <v>21</v>
       </c>
@@ -2112,7 +2105,9 @@
       <c r="I18" s="75"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="39"/>
+      <c r="A19" s="39" t="s">
+        <v>22</v>
+      </c>
       <c r="B19" s="40"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -2172,18 +2167,21 @@
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="41"/>
-      <c r="I24" s="76"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="75"/>
     </row>
     <row r="25" ht="18.75" spans="1:9">
       <c r="A25" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
@@ -2191,22 +2189,22 @@
     </row>
     <row r="26" ht="16.5" spans="1:9">
       <c r="A26" s="42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
       <c r="F26" s="44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="77"/>
+      <c r="I26" s="76"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="47"/>
       <c r="C27" s="47"/>
@@ -2215,7 +2213,7 @@
       <c r="F27" s="48"/>
       <c r="G27" s="49"/>
       <c r="H27" s="49"/>
-      <c r="I27" s="78"/>
+      <c r="I27" s="77"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="50"/>
@@ -2224,11 +2222,11 @@
       <c r="D28" s="51"/>
       <c r="E28" s="51"/>
       <c r="F28" s="48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G28" s="49"/>
       <c r="H28" s="49"/>
-      <c r="I28" s="78"/>
+      <c r="I28" s="77"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="50"/>
@@ -2239,7 +2237,7 @@
       <c r="F29" s="48"/>
       <c r="G29" s="49"/>
       <c r="H29" s="49"/>
-      <c r="I29" s="78"/>
+      <c r="I29" s="77"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="50"/>
@@ -2248,11 +2246,11 @@
       <c r="D30" s="51"/>
       <c r="E30" s="51"/>
       <c r="F30" s="52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G30" s="53"/>
       <c r="H30" s="53"/>
-      <c r="I30" s="79"/>
+      <c r="I30" s="78"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="50"/>
@@ -2263,7 +2261,7 @@
       <c r="F31" s="54"/>
       <c r="G31" s="55"/>
       <c r="H31" s="55"/>
-      <c r="I31" s="80"/>
+      <c r="I31" s="79"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="50"/>
@@ -2300,7 +2298,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -2340,7 +2338,7 @@
       <c r="D38" s="51"/>
       <c r="E38" s="51"/>
       <c r="F38" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
@@ -2348,18 +2346,18 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="51"/>
       <c r="E39" s="51"/>
       <c r="F39" s="57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G39" s="58"/>
       <c r="H39" s="58"/>
-      <c r="I39" s="81"/>
+      <c r="I39" s="80"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="50"/>
@@ -2370,7 +2368,7 @@
       <c r="F40" s="57"/>
       <c r="G40" s="58"/>
       <c r="H40" s="58"/>
-      <c r="I40" s="81"/>
+      <c r="I40" s="80"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="50"/>
@@ -2381,7 +2379,7 @@
       <c r="F41" s="57"/>
       <c r="G41" s="58"/>
       <c r="H41" s="58"/>
-      <c r="I41" s="81"/>
+      <c r="I41" s="80"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="50"/>
@@ -2392,7 +2390,7 @@
       <c r="F42" s="57"/>
       <c r="G42" s="58"/>
       <c r="H42" s="58"/>
-      <c r="I42" s="81"/>
+      <c r="I42" s="80"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="50"/>
@@ -2403,7 +2401,7 @@
       <c r="F43" s="57"/>
       <c r="G43" s="58"/>
       <c r="H43" s="58"/>
-      <c r="I43" s="81"/>
+      <c r="I43" s="80"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="50"/>
@@ -2414,9 +2412,9 @@
       <c r="F44" s="57"/>
       <c r="G44" s="58"/>
       <c r="H44" s="58"/>
-      <c r="I44" s="81"/>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="I44" s="80"/>
+    </row>
+    <row r="45" ht="15.75" spans="1:9">
       <c r="A45" s="59"/>
       <c r="B45" s="60"/>
       <c r="C45" s="60"/>
@@ -2425,10 +2423,10 @@
       <c r="F45" s="61"/>
       <c r="G45" s="62"/>
       <c r="H45" s="62"/>
-      <c r="I45" s="82"/>
+      <c r="I45" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="57">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F3:I3"/>
@@ -2465,6 +2463,7 @@
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:I24"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="A26:E26"/>

--- a/Resume(eng).xlsx
+++ b/Resume(eng).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Плегунов Николай Михайлович</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>HTML/CSS(basic level)</t>
+  </si>
+  <si>
+    <t>Linux terminal(basic level)</t>
   </si>
   <si>
     <t>Previous work:</t>
@@ -163,9 +166,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
@@ -244,15 +247,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,30 +270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,6 +279,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,22 +307,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -350,8 +323,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,6 +345,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -380,181 +383,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,6 +1043,65 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1058,74 +1120,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1140,6 +1134,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1149,142 +1152,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1853,7 +1856,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="A9" sqref="A9:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2118,7 +2121,9 @@
       <c r="I19" s="75"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="39"/>
+      <c r="A20" s="39" t="s">
+        <v>23</v>
+      </c>
       <c r="B20" s="40"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
@@ -2161,7 +2166,7 @@
       <c r="H23" s="38"/>
       <c r="I23" s="75"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" ht="15.75" spans="1:9">
       <c r="A24" s="39"/>
       <c r="B24" s="40"/>
       <c r="C24" s="40"/>
@@ -2174,14 +2179,14 @@
     </row>
     <row r="25" ht="18.75" spans="1:9">
       <c r="A25" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
@@ -2189,14 +2194,14 @@
     </row>
     <row r="26" ht="16.5" spans="1:9">
       <c r="A26" s="42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
       <c r="F26" s="44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
@@ -2204,7 +2209,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="47"/>
       <c r="C27" s="47"/>
@@ -2222,7 +2227,7 @@
       <c r="D28" s="51"/>
       <c r="E28" s="51"/>
       <c r="F28" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G28" s="49"/>
       <c r="H28" s="49"/>
@@ -2246,7 +2251,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="51"/>
       <c r="F30" s="52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G30" s="53"/>
       <c r="H30" s="53"/>
@@ -2298,7 +2303,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -2338,7 +2343,7 @@
       <c r="D38" s="51"/>
       <c r="E38" s="51"/>
       <c r="F38" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
@@ -2346,14 +2351,14 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="51"/>
       <c r="E39" s="51"/>
       <c r="F39" s="57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G39" s="58"/>
       <c r="H39" s="58"/>

--- a/Resume(eng).xlsx
+++ b/Resume(eng).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13080"/>
+    <workbookView windowWidth="24225" windowHeight="13080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Плегунов Николай Михайлович</t>
   </si>
   <si>
-    <t>Plegunov Nikolai</t>
+    <t xml:space="preserve">                Plegunov Nikolai</t>
   </si>
   <si>
     <t>plegunov@list.ru</t>
@@ -31,7 +31,7 @@
     <t>About me:</t>
   </si>
   <si>
-    <t>I like working with my hands and head. I don't like fuzzy tasks. I'm friends with technology and people. I do not learn quickly, but I do not succumb to panic and despondency. Since February 2022, i began studying the profession of a tester. Google and Youtube will help me.</t>
+    <t>I like to work with my hands and head. I have extensive experience working with various equipment, technical documentation, its improvement and creation from scratch. Experience of working in a team of up to 2000 people, I can easily communicate between departments. Now I want to change the field of activity, I study hard and understand all the risks.</t>
   </si>
   <si>
     <t>QA engineer</t>
@@ -73,19 +73,34 @@
     <t>-TPS</t>
   </si>
   <si>
+    <t>Experience in testing:</t>
+  </si>
+  <si>
     <t>-Java (basic level)</t>
   </si>
   <si>
+    <t>Test.io</t>
+  </si>
+  <si>
     <t>-English (B1)</t>
   </si>
   <si>
+    <t>Utest.com</t>
+  </si>
+  <si>
     <t>-Selenium IDE (basic level)</t>
   </si>
   <si>
+    <t>sber.ru  bug-search in Salute</t>
+  </si>
+  <si>
     <t>HTML/CSS(basic level)</t>
   </si>
   <si>
     <t>Linux terminal(basic level)</t>
+  </si>
+  <si>
+    <t>Windows(experienced user)</t>
   </si>
   <si>
     <t>Previous work:</t>
@@ -166,10 +181,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -241,21 +256,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -263,7 +263,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,14 +329,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -304,6 +341,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,16 +368,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,28 +382,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -377,13 +392,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,31 +482,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,13 +506,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,115 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,6 +1058,32 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1061,17 +1102,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1099,23 +1129,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,160 +1158,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1325,16 +1340,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1490,10 +1505,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1593,6 +1608,50 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>256540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Изображение 1" descr="12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect l="9164" t="4884" r="4439"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="9525"/>
+          <a:ext cx="659765" cy="932815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1853,10 +1912,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E20"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1878,7 +1937,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="63"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1906,7 +1965,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="65"/>
     </row>
-    <row r="4" customHeight="1" spans="1:9">
+    <row r="4" ht="21" customHeight="1" spans="1:9">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -1932,7 +1991,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="67"/>
     </row>
-    <row r="6" ht="35" customHeight="1" spans="1:9">
+    <row r="6" ht="43" customHeight="1" spans="1:9">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -1943,7 +2002,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="68"/>
     </row>
-    <row r="7" ht="24" spans="1:9">
+    <row r="7" ht="21" customHeight="1" spans="1:9">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
@@ -2042,7 +2101,7 @@
       <c r="H13" s="38"/>
       <c r="I13" s="75"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" ht="15.75" spans="1:9">
       <c r="A14" s="28" t="s">
         <v>17</v>
       </c>
@@ -2055,7 +2114,7 @@
       <c r="H14" s="38"/>
       <c r="I14" s="75"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" ht="18.75" spans="1:9">
       <c r="A15" s="28" t="s">
         <v>18</v>
       </c>
@@ -2063,53 +2122,61 @@
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="75"/>
+      <c r="F15" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="70"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="37"/>
+      <c r="F16" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
       <c r="I16" s="75"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="37"/>
+      <c r="F17" s="37" t="s">
+        <v>23</v>
+      </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
       <c r="I17" s="75"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
-      <c r="F18" s="37"/>
+      <c r="F18" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
       <c r="I18" s="75"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="39" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19" s="40"/>
       <c r="C19" s="40"/>
@@ -2122,7 +2189,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="39" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B20" s="40"/>
       <c r="C20" s="40"/>
@@ -2133,8 +2200,10 @@
       <c r="H20" s="38"/>
       <c r="I20" s="75"/>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="39"/>
+    <row r="21" ht="15.75" spans="1:9">
+      <c r="A21" s="39" t="s">
+        <v>28</v>
+      </c>
       <c r="B21" s="40"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
@@ -2144,81 +2213,85 @@
       <c r="H21" s="38"/>
       <c r="I21" s="75"/>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="75"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="75"/>
-    </row>
-    <row r="24" ht="15.75" spans="1:9">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="75"/>
-    </row>
-    <row r="25" ht="18.75" spans="1:9">
-      <c r="A25" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:9">
-      <c r="A26" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="76"/>
+    <row r="22" ht="18.75" spans="1:9">
+      <c r="A22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:9">
+      <c r="A23" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="76"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="77"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="77"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="77"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="77"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="78"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="50"/>
@@ -2226,12 +2299,10 @@
       <c r="C28" s="51"/>
       <c r="D28" s="51"/>
       <c r="E28" s="51"/>
-      <c r="F28" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="77"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="79"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="50"/>
@@ -2239,10 +2310,10 @@
       <c r="C29" s="51"/>
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="77"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="75"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="50"/>
@@ -2250,12 +2321,10 @@
       <c r="C30" s="51"/>
       <c r="D30" s="51"/>
       <c r="E30" s="51"/>
-      <c r="F30" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="78"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="75"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="50"/>
@@ -2263,13 +2332,15 @@
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
       <c r="E31" s="51"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="79"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="75"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="50"/>
+      <c r="A32" s="56" t="s">
+        <v>36</v>
+      </c>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
@@ -2290,7 +2361,7 @@
       <c r="H33" s="38"/>
       <c r="I33" s="75"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" ht="15.75" spans="1:9">
       <c r="A34" s="50"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -2301,65 +2372,63 @@
       <c r="H34" s="38"/>
       <c r="I34" s="75"/>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="56" t="s">
-        <v>31</v>
-      </c>
+    <row r="35" ht="18.75" spans="1:9">
+      <c r="A35" s="50"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="51"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="75"/>
+      <c r="F35" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="50"/>
+      <c r="A36" s="50" t="s">
+        <v>38</v>
+      </c>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
       <c r="D36" s="51"/>
       <c r="E36" s="51"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="75"/>
-    </row>
-    <row r="37" ht="15.75" spans="1:9">
+      <c r="F36" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="80"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="50"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
       <c r="D37" s="51"/>
       <c r="E37" s="51"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="75"/>
-    </row>
-    <row r="38" ht="18.75" spans="1:9">
+      <c r="F37" s="57"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="80"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="50"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
       <c r="D38" s="51"/>
       <c r="E38" s="51"/>
-      <c r="F38" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="20"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="80"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="50" t="s">
-        <v>33</v>
-      </c>
+      <c r="A39" s="50"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
       <c r="D39" s="51"/>
       <c r="E39" s="51"/>
-      <c r="F39" s="57" t="s">
-        <v>34</v>
-      </c>
+      <c r="F39" s="57"/>
       <c r="G39" s="58"/>
       <c r="H39" s="58"/>
       <c r="I39" s="80"/>
@@ -2386,52 +2455,19 @@
       <c r="H41" s="58"/>
       <c r="I41" s="80"/>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="50"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="80"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="50"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="80"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="50"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="80"/>
-    </row>
-    <row r="45" ht="15.75" spans="1:9">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="81"/>
+    <row r="42" ht="15.75" spans="1:9">
+      <c r="A42" s="59"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="51">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F3:I3"/>
@@ -2466,37 +2502,32 @@
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="F34:I34"/>
     <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F38:I38"/>
     <mergeCell ref="A2:E3"/>
     <mergeCell ref="A5:I6"/>
     <mergeCell ref="F11:I12"/>
-    <mergeCell ref="A27:E34"/>
-    <mergeCell ref="A35:E38"/>
-    <mergeCell ref="A39:E45"/>
-    <mergeCell ref="F39:I45"/>
-    <mergeCell ref="F28:I29"/>
-    <mergeCell ref="F30:I31"/>
-    <mergeCell ref="F26:I27"/>
+    <mergeCell ref="A24:E31"/>
+    <mergeCell ref="A32:E35"/>
+    <mergeCell ref="A36:E42"/>
+    <mergeCell ref="F36:I42"/>
+    <mergeCell ref="F25:I26"/>
+    <mergeCell ref="F27:I28"/>
+    <mergeCell ref="F23:I24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="plegunov@list.ru"/>
-    <hyperlink ref="F26" r:id="rId2" display="https://tester.test.io/profile_pages/plegunov-nikolai"/>
-    <hyperlink ref="F28" r:id="rId3" display="https://github.com/PlegunovN/Resume.git"/>
+    <hyperlink ref="F2" r:id="rId2" display="plegunov@list.ru"/>
+    <hyperlink ref="F23" r:id="rId3" display="https://tester.test.io/profile_pages/plegunov-nikolai"/>
+    <hyperlink ref="F25" r:id="rId4" display="https://github.com/PlegunovN/Resume.git"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>